--- a/class_diagram/after/model/entity/user/面談予約システム_クラス図 (model.entity.user).xlsx
+++ b/class_diagram/after/model/entity/user/面談予約システム_クラス図 (model.entity.user).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\entity\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\model\entity\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0FFC0-61F6-4AE4-8483-05B951F177AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838409B-5D79-4EFC-897B-A8B02436F40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -217,7 +217,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>UserInfo</a:t>
+            <a:t>User</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
             <a:solidFill>
@@ -1994,35 +1994,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>0</v>

--- a/class_diagram/after/model/entity/user/面談予約システム_クラス図 (model.entity.user).xlsx
+++ b/class_diagram/after/model/entity/user/面談予約システム_クラス図 (model.entity.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_mon\meeting_reservation_system\class_diagram\after\model\entity\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\entity\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0838409B-5D79-4EFC-897B-A8B02436F40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6E2DB-E049-45D3-8245-F30BF810D165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>userName :</a:t>
+            <a:t>name :</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1128,188 +1128,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBD44FD-C17D-4A15-AC0E-FAB3CEC72378}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7200900" y="4152900"/>
-          <a:ext cx="1657350" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>pass</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> : String</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1468,7 +1286,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>createDatetime</a:t>
+            <a:t>createdAt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1477,7 +1295,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> : DateTime</a:t>
+            <a:t> : LocalDateTime</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1493,13 +1311,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>638174</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -1519,8 +1337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11982450" y="4143375"/>
-          <a:ext cx="2857500" cy="342900"/>
+          <a:off x="11982449" y="4143375"/>
+          <a:ext cx="3057525" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,7 +1468,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>updateDatetime</a:t>
+            <a:t>updatedAt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -1659,7 +1477,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> : DateTime</a:t>
+            <a:t> : LocalDateTime</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1998,31 +1816,31 @@
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>0</v>
